--- a/public/files/excel/FormatoConvenios.xlsx
+++ b/public/files/excel/FormatoConvenios.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\movilidad\public\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\movilidad\public\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68489AF6-E1ED-4BB9-BB61-483B7F4D3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CONVENIOS ACTIVOS DE COOPERACION</t>
   </si>
@@ -49,15 +48,18 @@
     <t>Nacional/Internacional</t>
   </si>
   <si>
-    <t>CONSEJO NACIONAL DE ACREDITACIÓN
-PROCESO DE ACREDITACIÓN INSTITUCIONAL
-CUADRO No. 13 CONVENIOS Y ALIANZAS ESTRATÉGICAS</t>
+    <t>UNIDADES TECNOLOGICAS DE SANTANDER
+OFICINA DE RELACIONES INTERINSTITUCIONALES
+REPORTE DE CONVENIOS</t>
+  </si>
+  <si>
+    <t>Tipo de Convenio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,23 +172,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,28 +259,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>627994</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>355918</xdr:rowOff>
+      <xdr:rowOff>139955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>950119</xdr:rowOff>
+      <xdr:rowOff>912605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9749E1A3-C073-4147-9B85-8DCB6F35A7B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="Archivo:Logo de las Unidades Tecnológicas de Santander.svg - Wikipedia, la  enciclopedia libre"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -287,23 +283,31 @@
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4066519" y="355918"/>
-          <a:ext cx="1229381" cy="594201"/>
+          <a:off x="3943350" y="139955"/>
+          <a:ext cx="1762125" cy="772650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -597,52 +601,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,33 +657,36 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>